--- a/horarios_optimizados-781-push_gap_0.45.xlsx
+++ b/horarios_optimizados-781-push_gap_0.45.xlsx
@@ -625,26 +625,94 @@
       <c r="C5" s="4" t="inlineStr"/>
       <c r="D5" s="4" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
-      <c r="J5" s="4" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K5" s="4" t="inlineStr"/>
       <c r="L5" s="4" t="inlineStr"/>
       <c r="M5" s="4" t="inlineStr"/>
-      <c r="N5" s="4" t="inlineStr"/>
-      <c r="O5" s="4" t="inlineStr"/>
-      <c r="P5" s="4" t="inlineStr"/>
-      <c r="Q5" s="4" t="inlineStr"/>
-      <c r="R5" s="4" t="inlineStr"/>
-      <c r="S5" s="4" t="inlineStr"/>
-      <c r="T5" s="4" t="inlineStr"/>
-      <c r="U5" s="4" t="inlineStr"/>
-      <c r="V5" s="4" t="inlineStr"/>
-      <c r="W5" s="4" t="inlineStr"/>
-      <c r="X5" s="4" t="inlineStr"/>
-      <c r="Y5" s="4" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -662,8 +730,16 @@
       <c r="I6" s="4" t="inlineStr"/>
       <c r="J6" s="4" t="inlineStr"/>
       <c r="K6" s="4" t="inlineStr"/>
-      <c r="L6" s="4" t="inlineStr"/>
-      <c r="M6" s="4" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N6" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -694,11 +770,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="T6" s="4" t="inlineStr"/>
       <c r="U6" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -740,81 +812,21 @@
       <c r="H7" s="4" t="inlineStr"/>
       <c r="I7" s="4" t="inlineStr"/>
       <c r="J7" s="4" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K7" s="4" t="inlineStr"/>
+      <c r="L7" s="4" t="inlineStr"/>
+      <c r="M7" s="4" t="inlineStr"/>
+      <c r="N7" s="4" t="inlineStr"/>
+      <c r="O7" s="4" t="inlineStr"/>
+      <c r="P7" s="4" t="inlineStr"/>
+      <c r="Q7" s="4" t="inlineStr"/>
+      <c r="R7" s="4" t="inlineStr"/>
+      <c r="S7" s="4" t="inlineStr"/>
+      <c r="T7" s="4" t="inlineStr"/>
+      <c r="U7" s="4" t="inlineStr"/>
+      <c r="V7" s="4" t="inlineStr"/>
+      <c r="W7" s="4" t="inlineStr"/>
+      <c r="X7" s="4" t="inlineStr"/>
+      <c r="Y7" s="4" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -822,12 +834,36 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr"/>
-      <c r="C8" s="4" t="inlineStr"/>
-      <c r="D8" s="4" t="inlineStr"/>
-      <c r="E8" s="4" t="inlineStr"/>
-      <c r="F8" s="4" t="inlineStr"/>
-      <c r="G8" s="4" t="inlineStr"/>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -838,21 +874,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J8" s="4" t="inlineStr"/>
+      <c r="K8" s="4" t="inlineStr"/>
+      <c r="L8" s="4" t="inlineStr"/>
       <c r="M8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -883,21 +907,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="S8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="S8" s="4" t="inlineStr"/>
+      <c r="T8" s="4" t="inlineStr"/>
+      <c r="U8" s="4" t="inlineStr"/>
       <c r="V8" s="4" t="inlineStr"/>
       <c r="W8" s="4" t="inlineStr"/>
       <c r="X8" s="4" t="inlineStr"/>
@@ -909,33 +921,25 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B9" s="4" t="inlineStr"/>
+      <c r="C9" s="4" t="inlineStr"/>
+      <c r="D9" s="4" t="inlineStr"/>
+      <c r="E9" s="4" t="inlineStr"/>
       <c r="F9" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr"/>
-      <c r="H9" s="4" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -946,16 +950,8 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K9" s="4" t="inlineStr"/>
+      <c r="L9" s="4" t="inlineStr"/>
       <c r="M9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1015,34 +1011,30 @@
       <c r="B10" s="4" t="inlineStr"/>
       <c r="C10" s="4" t="inlineStr"/>
       <c r="D10" s="4" t="inlineStr"/>
-      <c r="E10" s="4" t="inlineStr"/>
-      <c r="F10" s="4" t="inlineStr"/>
-      <c r="G10" s="4" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H10" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="I10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I10" s="4" t="inlineStr"/>
+      <c r="J10" s="4" t="inlineStr"/>
+      <c r="K10" s="4" t="inlineStr"/>
+      <c r="L10" s="4" t="inlineStr"/>
       <c r="M10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1098,8 +1090,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="X10" s="4" t="inlineStr"/>
-      <c r="Y10" s="4" t="inlineStr"/>
+      <c r="X10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -1112,34 +1112,30 @@
       <c r="D11" s="4" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr"/>
       <c r="F11" s="4" t="inlineStr"/>
-      <c r="G11" s="4" t="inlineStr"/>
-      <c r="H11" s="4" t="inlineStr"/>
-      <c r="I11" s="4" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J11" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="K11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K11" s="4" t="inlineStr"/>
+      <c r="L11" s="4" t="inlineStr"/>
+      <c r="M11" s="4" t="inlineStr"/>
+      <c r="N11" s="4" t="inlineStr"/>
       <c r="O11" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1155,7 +1151,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R11" s="4" t="inlineStr"/>
+      <c r="R11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="S11" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1307,12 +1307,36 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr"/>
-      <c r="C16" s="4" t="inlineStr"/>
-      <c r="D16" s="4" t="inlineStr"/>
-      <c r="E16" s="4" t="inlineStr"/>
-      <c r="F16" s="4" t="inlineStr"/>
-      <c r="G16" s="4" t="inlineStr"/>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H16" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1323,21 +1347,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J16" s="4" t="inlineStr"/>
+      <c r="K16" s="4" t="inlineStr"/>
+      <c r="L16" s="4" t="inlineStr"/>
       <c r="M16" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1358,51 +1370,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Q16" s="4" t="inlineStr"/>
+      <c r="R16" s="4" t="inlineStr"/>
+      <c r="S16" s="4" t="inlineStr"/>
+      <c r="T16" s="4" t="inlineStr"/>
+      <c r="U16" s="4" t="inlineStr"/>
+      <c r="V16" s="4" t="inlineStr"/>
+      <c r="W16" s="4" t="inlineStr"/>
+      <c r="X16" s="4" t="inlineStr"/>
+      <c r="Y16" s="4" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -1412,9 +1388,21 @@
       </c>
       <c r="B17" s="4" t="inlineStr"/>
       <c r="C17" s="4" t="inlineStr"/>
-      <c r="D17" s="4" t="inlineStr"/>
-      <c r="E17" s="4" t="inlineStr"/>
-      <c r="F17" s="4" t="inlineStr"/>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="G17" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1436,21 +1424,9 @@
         </is>
       </c>
       <c r="K17" s="4" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L17" s="4" t="inlineStr"/>
+      <c r="M17" s="4" t="inlineStr"/>
+      <c r="N17" s="4" t="inlineStr"/>
       <c r="O17" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1517,18 +1493,30 @@
       <c r="C18" s="4" t="inlineStr"/>
       <c r="D18" s="4" t="inlineStr"/>
       <c r="E18" s="4" t="inlineStr"/>
-      <c r="F18" s="4" t="inlineStr"/>
-      <c r="G18" s="4" t="inlineStr"/>
-      <c r="H18" s="4" t="inlineStr"/>
-      <c r="I18" s="4" t="inlineStr"/>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J18" s="4" t="inlineStr"/>
       <c r="K18" s="4" t="inlineStr"/>
       <c r="L18" s="4" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M18" s="4" t="inlineStr"/>
       <c r="N18" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1569,26 +1557,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="V18" s="4" t="inlineStr"/>
+      <c r="W18" s="4" t="inlineStr"/>
+      <c r="X18" s="4" t="inlineStr"/>
+      <c r="Y18" s="4" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -1596,31 +1568,11 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B19" s="4" t="inlineStr"/>
+      <c r="C19" s="4" t="inlineStr"/>
+      <c r="D19" s="4" t="inlineStr"/>
+      <c r="E19" s="4" t="inlineStr"/>
+      <c r="F19" s="4" t="inlineStr"/>
       <c r="G19" s="4" t="inlineStr"/>
       <c r="H19" s="4" t="inlineStr"/>
       <c r="I19" s="5" t="inlineStr">
@@ -1659,15 +1611,51 @@
         </is>
       </c>
       <c r="P19" s="4" t="inlineStr"/>
-      <c r="Q19" s="4" t="inlineStr"/>
-      <c r="R19" s="4" t="inlineStr"/>
-      <c r="S19" s="4" t="inlineStr"/>
-      <c r="T19" s="4" t="inlineStr"/>
-      <c r="U19" s="4" t="inlineStr"/>
-      <c r="V19" s="4" t="inlineStr"/>
-      <c r="W19" s="4" t="inlineStr"/>
-      <c r="X19" s="4" t="inlineStr"/>
-      <c r="Y19" s="4" t="inlineStr"/>
+      <c r="Q19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -1675,24 +1663,40 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr"/>
-      <c r="C20" s="4" t="inlineStr"/>
-      <c r="D20" s="4" t="inlineStr"/>
-      <c r="E20" s="4" t="inlineStr"/>
-      <c r="F20" s="4" t="inlineStr"/>
-      <c r="G20" s="4" t="inlineStr"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H20" s="4" t="inlineStr"/>
       <c r="I20" s="4" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J20" s="4" t="inlineStr"/>
+      <c r="K20" s="4" t="inlineStr"/>
       <c r="L20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1708,7 +1712,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O20" s="4" t="inlineStr"/>
+      <c r="O20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1749,16 +1757,8 @@
           <t>R</t>
         </is>
       </c>
-      <c r="X20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="X20" s="4" t="inlineStr"/>
+      <c r="Y20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -1775,7 +1775,11 @@
       <c r="H21" s="4" t="inlineStr"/>
       <c r="I21" s="4" t="inlineStr"/>
       <c r="J21" s="4" t="inlineStr"/>
-      <c r="K21" s="4" t="inlineStr"/>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L21" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1791,11 +1795,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O21" s="4" t="inlineStr"/>
       <c r="P21" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1931,110 +1931,30 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B25" s="4" t="inlineStr"/>
+      <c r="C25" s="4" t="inlineStr"/>
+      <c r="D25" s="4" t="inlineStr"/>
+      <c r="E25" s="4" t="inlineStr"/>
       <c r="F25" s="4" t="inlineStr"/>
       <c r="G25" s="4" t="inlineStr"/>
       <c r="H25" s="4" t="inlineStr"/>
       <c r="I25" s="4" t="inlineStr"/>
-      <c r="J25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X25" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y25" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="J25" s="4" t="inlineStr"/>
+      <c r="K25" s="4" t="inlineStr"/>
+      <c r="L25" s="4" t="inlineStr"/>
+      <c r="M25" s="4" t="inlineStr"/>
+      <c r="N25" s="4" t="inlineStr"/>
+      <c r="O25" s="4" t="inlineStr"/>
+      <c r="P25" s="4" t="inlineStr"/>
+      <c r="Q25" s="4" t="inlineStr"/>
+      <c r="R25" s="4" t="inlineStr"/>
+      <c r="S25" s="4" t="inlineStr"/>
+      <c r="T25" s="4" t="inlineStr"/>
+      <c r="U25" s="4" t="inlineStr"/>
+      <c r="V25" s="4" t="inlineStr"/>
+      <c r="W25" s="4" t="inlineStr"/>
+      <c r="X25" s="4" t="inlineStr"/>
+      <c r="Y25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -2042,48 +1962,28 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B26" s="4" t="inlineStr"/>
+      <c r="C26" s="4" t="inlineStr"/>
+      <c r="D26" s="4" t="inlineStr"/>
+      <c r="E26" s="4" t="inlineStr"/>
+      <c r="F26" s="4" t="inlineStr"/>
+      <c r="G26" s="4" t="inlineStr"/>
+      <c r="H26" s="4" t="inlineStr"/>
       <c r="I26" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="J26" s="4" t="inlineStr"/>
-      <c r="K26" s="4" t="inlineStr"/>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L26" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2094,26 +1994,62 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N26" s="4" t="inlineStr"/>
       <c r="O26" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="P26" s="4" t="inlineStr"/>
-      <c r="Q26" s="4" t="inlineStr"/>
-      <c r="R26" s="4" t="inlineStr"/>
-      <c r="S26" s="4" t="inlineStr"/>
-      <c r="T26" s="4" t="inlineStr"/>
-      <c r="U26" s="4" t="inlineStr"/>
-      <c r="V26" s="4" t="inlineStr"/>
-      <c r="W26" s="4" t="inlineStr"/>
-      <c r="X26" s="4" t="inlineStr"/>
-      <c r="Y26" s="4" t="inlineStr"/>
+      <c r="P26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -2125,26 +2061,98 @@
       <c r="C27" s="4" t="inlineStr"/>
       <c r="D27" s="4" t="inlineStr"/>
       <c r="E27" s="4" t="inlineStr"/>
-      <c r="F27" s="4" t="inlineStr"/>
-      <c r="G27" s="4" t="inlineStr"/>
-      <c r="H27" s="4" t="inlineStr"/>
-      <c r="I27" s="4" t="inlineStr"/>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J27" s="4" t="inlineStr"/>
       <c r="K27" s="4" t="inlineStr"/>
-      <c r="L27" s="4" t="inlineStr"/>
-      <c r="M27" s="4" t="inlineStr"/>
-      <c r="N27" s="4" t="inlineStr"/>
-      <c r="O27" s="4" t="inlineStr"/>
-      <c r="P27" s="4" t="inlineStr"/>
-      <c r="Q27" s="4" t="inlineStr"/>
-      <c r="R27" s="4" t="inlineStr"/>
-      <c r="S27" s="4" t="inlineStr"/>
-      <c r="T27" s="4" t="inlineStr"/>
-      <c r="U27" s="4" t="inlineStr"/>
-      <c r="V27" s="4" t="inlineStr"/>
-      <c r="W27" s="4" t="inlineStr"/>
-      <c r="X27" s="4" t="inlineStr"/>
-      <c r="Y27" s="4" t="inlineStr"/>
+      <c r="L27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -2155,31 +2163,11 @@
       <c r="B28" s="4" t="inlineStr"/>
       <c r="C28" s="4" t="inlineStr"/>
       <c r="D28" s="4" t="inlineStr"/>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="E28" s="4" t="inlineStr"/>
+      <c r="F28" s="4" t="inlineStr"/>
+      <c r="G28" s="4" t="inlineStr"/>
+      <c r="H28" s="4" t="inlineStr"/>
+      <c r="I28" s="4" t="inlineStr"/>
       <c r="J28" s="4" t="inlineStr"/>
       <c r="K28" s="4" t="inlineStr"/>
       <c r="L28" s="4" t="inlineStr"/>
@@ -2261,8 +2249,16 @@
       <c r="I29" s="4" t="inlineStr"/>
       <c r="J29" s="4" t="inlineStr"/>
       <c r="K29" s="4" t="inlineStr"/>
-      <c r="L29" s="4" t="inlineStr"/>
-      <c r="M29" s="4" t="inlineStr"/>
+      <c r="L29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2288,11 +2284,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="S29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="S29" s="4" t="inlineStr"/>
       <c r="T29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2330,36 +2322,12 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B30" s="4" t="inlineStr"/>
+      <c r="C30" s="4" t="inlineStr"/>
+      <c r="D30" s="4" t="inlineStr"/>
+      <c r="E30" s="4" t="inlineStr"/>
+      <c r="F30" s="4" t="inlineStr"/>
+      <c r="G30" s="4" t="inlineStr"/>
       <c r="H30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2370,14 +2338,22 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J30" s="4" t="inlineStr"/>
-      <c r="K30" s="4" t="inlineStr"/>
-      <c r="L30" s="4" t="inlineStr"/>
-      <c r="M30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M30" s="4" t="inlineStr"/>
       <c r="N30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2413,11 +2389,31 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U30" s="4" t="inlineStr"/>
-      <c r="V30" s="4" t="inlineStr"/>
-      <c r="W30" s="4" t="inlineStr"/>
-      <c r="X30" s="4" t="inlineStr"/>
-      <c r="Y30" s="4" t="inlineStr"/>
+      <c r="U30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -2427,40 +2423,32 @@
       </c>
       <c r="B31" s="4" t="inlineStr"/>
       <c r="C31" s="4" t="inlineStr"/>
-      <c r="D31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J31" s="4" t="inlineStr"/>
-      <c r="K31" s="4" t="inlineStr"/>
-      <c r="L31" s="4" t="inlineStr"/>
-      <c r="M31" s="4" t="inlineStr"/>
+      <c r="D31" s="4" t="inlineStr"/>
+      <c r="E31" s="4" t="inlineStr"/>
+      <c r="F31" s="4" t="inlineStr"/>
+      <c r="G31" s="4" t="inlineStr"/>
+      <c r="H31" s="4" t="inlineStr"/>
+      <c r="I31" s="4" t="inlineStr"/>
+      <c r="J31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N31" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2481,11 +2469,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R31" s="4" t="inlineStr"/>
       <c r="S31" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2496,8 +2480,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U31" s="4" t="inlineStr"/>
-      <c r="V31" s="4" t="inlineStr"/>
+      <c r="U31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="W31" s="4" t="inlineStr"/>
       <c r="X31" s="4" t="inlineStr"/>
       <c r="Y31" s="4" t="inlineStr"/>
@@ -2594,38 +2586,50 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr"/>
-      <c r="C35" s="4" t="inlineStr"/>
-      <c r="D35" s="4" t="inlineStr"/>
-      <c r="E35" s="4" t="inlineStr"/>
-      <c r="F35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F35" s="4" t="inlineStr"/>
+      <c r="G35" s="4" t="inlineStr"/>
+      <c r="H35" s="4" t="inlineStr"/>
+      <c r="I35" s="4" t="inlineStr"/>
       <c r="J35" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="K35" s="4" t="inlineStr"/>
-      <c r="L35" s="4" t="inlineStr"/>
-      <c r="M35" s="4" t="inlineStr"/>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N35" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2676,14 +2680,14 @@
           <t>R</t>
         </is>
       </c>
-      <c r="X35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
+      <c r="X35" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Y35" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
     </row>
@@ -2749,17 +2753,17 @@
           <t>R</t>
         </is>
       </c>
-      <c r="G37" s="4" t="inlineStr"/>
+      <c r="G37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H37" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="I37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I37" s="4" t="inlineStr"/>
       <c r="J37" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2803,47 +2807,19 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J38" s="4" t="inlineStr"/>
+      <c r="B38" s="4" t="inlineStr"/>
+      <c r="C38" s="4" t="inlineStr"/>
+      <c r="D38" s="4" t="inlineStr"/>
+      <c r="E38" s="4" t="inlineStr"/>
+      <c r="F38" s="4" t="inlineStr"/>
+      <c r="G38" s="4" t="inlineStr"/>
+      <c r="H38" s="4" t="inlineStr"/>
+      <c r="I38" s="4" t="inlineStr"/>
+      <c r="J38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K38" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2864,17 +2840,57 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O38" s="4" t="inlineStr"/>
-      <c r="P38" s="4" t="inlineStr"/>
+      <c r="O38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Q38" s="4" t="inlineStr"/>
-      <c r="R38" s="4" t="inlineStr"/>
-      <c r="S38" s="4" t="inlineStr"/>
-      <c r="T38" s="4" t="inlineStr"/>
-      <c r="U38" s="4" t="inlineStr"/>
-      <c r="V38" s="4" t="inlineStr"/>
-      <c r="W38" s="4" t="inlineStr"/>
-      <c r="X38" s="4" t="inlineStr"/>
-      <c r="Y38" s="4" t="inlineStr"/>
+      <c r="R38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -2882,8 +2898,16 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr"/>
-      <c r="C39" s="4" t="inlineStr"/>
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D39" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2915,9 +2939,21 @@
         </is>
       </c>
       <c r="J39" s="4" t="inlineStr"/>
-      <c r="K39" s="4" t="inlineStr"/>
-      <c r="L39" s="4" t="inlineStr"/>
-      <c r="M39" s="4" t="inlineStr"/>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N39" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2948,36 +2984,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="T39" s="4" t="inlineStr"/>
+      <c r="U39" s="4" t="inlineStr"/>
+      <c r="V39" s="4" t="inlineStr"/>
+      <c r="W39" s="4" t="inlineStr"/>
+      <c r="X39" s="4" t="inlineStr"/>
+      <c r="Y39" s="4" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -2989,16 +3001,8 @@
       <c r="C40" s="4" t="inlineStr"/>
       <c r="D40" s="4" t="inlineStr"/>
       <c r="E40" s="4" t="inlineStr"/>
-      <c r="F40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F40" s="4" t="inlineStr"/>
+      <c r="G40" s="4" t="inlineStr"/>
       <c r="H40" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3014,19 +3018,27 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K40" s="4" t="inlineStr"/>
-      <c r="L40" s="4" t="inlineStr"/>
-      <c r="M40" s="4" t="inlineStr"/>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N40" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="O40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O40" s="4" t="inlineStr"/>
       <c r="P40" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3057,26 +3069,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="V40" s="4" t="inlineStr"/>
+      <c r="W40" s="4" t="inlineStr"/>
+      <c r="X40" s="4" t="inlineStr"/>
+      <c r="Y40" s="4" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -3086,9 +3082,21 @@
       </c>
       <c r="B41" s="4" t="inlineStr"/>
       <c r="C41" s="4" t="inlineStr"/>
-      <c r="D41" s="4" t="inlineStr"/>
-      <c r="E41" s="4" t="inlineStr"/>
-      <c r="F41" s="4" t="inlineStr"/>
+      <c r="D41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="G41" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3104,15 +3112,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J41" s="4" t="inlineStr"/>
       <c r="K41" s="4" t="inlineStr"/>
       <c r="L41" s="4" t="inlineStr"/>
       <c r="M41" s="4" t="inlineStr"/>
-      <c r="N41" s="4" t="inlineStr"/>
+      <c r="N41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O41" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3143,16 +3151,8 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="U41" s="4" t="inlineStr"/>
+      <c r="V41" s="4" t="inlineStr"/>
       <c r="W41" s="4" t="inlineStr"/>
       <c r="X41" s="4" t="inlineStr"/>
       <c r="Y41" s="4" t="inlineStr"/>
@@ -3259,17 +3259,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3">
@@ -3290,20 +3302,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3323,20 +3345,18 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>Descanso</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3356,20 +3376,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>7</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3389,17 +3419,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -3408,7 +3438,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -3432,20 +3462,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>8.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3465,17 +3505,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -3487,7 +3527,7 @@
         <v>6.5</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -3539,20 +3579,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3572,7 +3622,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3582,7 +3632,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -3594,7 +3644,7 @@
         <v>9</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -3615,20 +3665,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3648,29 +3708,29 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
@@ -3691,29 +3751,29 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -3734,11 +3794,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>20:00</t>
@@ -3747,7 +3815,9 @@
       <c r="H15" t="n">
         <v>6</v>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3767,29 +3837,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3810,29 +3868,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
@@ -3853,17 +3911,29 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -3884,30 +3954,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>15:00</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3927,20 +3987,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3960,29 +4030,29 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="I21" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
@@ -4003,29 +4073,29 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
@@ -4046,17 +4116,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -4065,10 +4135,10 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -4125,12 +4195,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -4163,26 +4233,26 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="I26" t="n">
         <v>0.5</v>
@@ -4206,7 +4276,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -4216,19 +4286,19 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28">
@@ -4249,29 +4319,29 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="I28" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29">
@@ -4292,26 +4362,26 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I29" t="n">
         <v>2</v>
